--- a/biology/Biologie cellulaire et moléculaire/Autoradiographie/Autoradiographie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Autoradiographie/Autoradiographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’autoradiographie est une technique d'imagerie d'émission réalisée à partir d'une source radioactive placée au contact d'une émulsion ou d'un film photographique[1]. 
-Comme l'indique le préfixe auto-, à la différence de la microradiographie, la source de rayonnement n'est pas une source externe (de rayons X par exemple), mais elle est incluse dans l'échantillon dont on produit une image[1]. En cela elle diffère fortement des techniques radiographiques classiques qui sont des techniques d'imagerie de transmission.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’autoradiographie est une technique d'imagerie d'émission réalisée à partir d'une source radioactive placée au contact d'une émulsion ou d'un film photographique. 
+Comme l'indique le préfixe auto-, à la différence de la microradiographie, la source de rayonnement n'est pas une source externe (de rayons X par exemple), mais elle est incluse dans l'échantillon dont on produit une image. En cela elle diffère fortement des techniques radiographiques classiques qui sont des techniques d'imagerie de transmission.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'autoradiographie est utilisée in situ ou ex situ :
-Dans l'industrie : notamment dans l'industrie nucléaire par exemple pour la détection de microfissures laissant passer du tritium ou pour l'étude de microstructures métalliques interagissant avec un environnement radioactif[2] pour connaître la distribution de la radioactivité d'un matériau. C'est dans ce cas une technique d'imagerie complémentaire (ou de substitution) aux techniques d'imagerie ionique (SIMS), et de la microanalyse nucléaire[2] ;
-En imagerie médicale : pour déterminer la biodistribution d'une substance radioactive dans un organe[3]. Elle a été découverte dans ce contexte conjointement par Jeanne Ferrier et Antoine Lacassagne en 1924.
+Dans l'industrie : notamment dans l'industrie nucléaire par exemple pour la détection de microfissures laissant passer du tritium ou pour l'étude de microstructures métalliques interagissant avec un environnement radioactif pour connaître la distribution de la radioactivité d'un matériau. C'est dans ce cas une technique d'imagerie complémentaire (ou de substitution) aux techniques d'imagerie ionique (SIMS), et de la microanalyse nucléaire ;
+En imagerie médicale : pour déterminer la biodistribution d'une substance radioactive dans un organe. Elle a été découverte dans ce contexte conjointement par Jeanne Ferrier et Antoine Lacassagne en 1924.
 En recherche : afin de détecter et quantifier une protéine spécifique dans un échantillon. En particulier après avoir effectué un western blot.</t>
         </is>
       </c>
